--- a/2Kr analysis compression.xlsx
+++ b/2Kr analysis compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo\Desktop\Performance\Progetto\cran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0BE45-2BB1-4659-BEAE-3DC06E10103F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD059B33-5F26-4020-9539-E2600C4BF7AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{BFB84A66-AB89-4725-93DE-5EFB5F8CCA41}"/>
   </bookViews>
@@ -254,6 +254,1447 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Residuals Accurancy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.55450574967577815"/>
+                  <c:y val="4.8435834670477039E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$D$21:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>-2.4929845460225399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0831513947736373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8657648402099227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7111021101884196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5886662689871429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.486080291836344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3970237464251414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3178098407415364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2460901654695893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1802716510750031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.119221134199847</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0621021066490544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0082783038771823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.95725368129332633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.90863340333185738</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.86209756667827031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.81738295788941406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.77427005635431245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.7325735637421168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.69213536556228017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.6528192079877555</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.61450660849518524</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.57709366971925891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.54048856494806119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.50460953012473142</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.4693832426714365</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.43474349909707011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.4006301257381869</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.36698807305277065</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.33376665557466606</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.30091890823963879</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.26840103619470485</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.23617194000999964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.20419280185299005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17242672096007022</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.1408383888659345</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.10939379648226645</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.8059966366998385E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.6804704475896027E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.5596366399235411E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5596366399235411E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6804704475896027E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8059966366998385E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10939379648226645</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1408383888659345</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.17242672096007022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.20419280185299005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.23617194000999964</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.26840103619470485</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.30091890823963879</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.33376665557466606</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.36698807305277065</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.4006301257381869</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43474349909706955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4693832426714365</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.50460953012473142</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54048856494806119</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57709366971925891</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.61450660849518524</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6528192079877555</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69213536556227961</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.7325735637421168</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.77427005635431245</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.81738295788941406</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.86209756667827087</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90863340333185738</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95725368129332689</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0082783038771823</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0621021066490544</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.119221134199847</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1802716510750031</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2460901654695893</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3178098407415364</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3970237464251407</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4860802918363445</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5886662689871429</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7111021101884201</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8657648402099227</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0831513947736369</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.4929845460225413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$21:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>-0.13712999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.12164999999999981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.7949999999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4430000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.0110000000000348E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.934999999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.6519999999999477E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.0129999999999804E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.8010000000000126E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.5619999999999123E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5110000000000881E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.2410000000000956E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4319999999999027E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.8119999999999266E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.4930000000000128E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.1029999999999891E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.483000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.4650000000000283E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.2769999999999957E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.2129999999999761E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.2069999999999812E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.6109999999999403E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.3430000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.3029999999999653E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.1829999999999785E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.0729999999999684E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.9699999999997004E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.1099999999997259E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.730000000000345E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.309999999999814E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.1099999999995021E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.0699999999996841E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.5300000000001432E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.4300000000003763E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.0299999999999763E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.6699999999998383E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.2699999999998823E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.6999999999969333E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9900000000001583E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6899999999994151E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1900000000004702E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8700000000000401E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8900000000001711E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9900000000003821E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1700000000002291E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.3900000000003381E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.3700000000000969E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.8300000000003358E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.3800000000007202E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0650000000000048E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1030000000000317E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1170000000000346E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1190000000000477E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4569999999999972E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.517000000000035E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6669999999999963E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8170000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8489999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9030000000000324E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9180000000000419E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0189999999999486E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2930000000000117E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8050000000000352E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8480000000000949E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8850000000000264E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2469999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.2769999999999744E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.5180000000000433E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8280000000000989E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.1889999999999326E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.6969999999999743E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.99899999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.0969999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.7250000000000263E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.5080000000000489E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.6750000000000327E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.7069999999999759E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.2050000000000409E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.10238999999999976</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.10496999999999979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71DD-41F4-B8B6-182182FAF897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="325977184"/>
+        <c:axId val="419616752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="325977184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419616752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419616752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325977184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>146139</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9394</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E5B413-6296-49C3-AAAE-99081C1ECBA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F5A1FF-97F8-4083-B44C-5A07F5858ACE}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +2007,7 @@
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
@@ -1740,15 +3181,15 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B22">
-        <f>B21+1</f>
+        <f t="shared" ref="B22:B53" si="7">B21+1</f>
         <v>2</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C85" si="7">(B22-0.5)/80</f>
+        <f t="shared" ref="C22:C85" si="8">(B22-0.5)/80</f>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D85" si="8">4.91*(C22^0.14-(1-C22)^0.14)</f>
+        <f t="shared" ref="D22:D85" si="9">4.91*(C22^0.14-(1-C22)^0.14)</f>
         <v>-2.0831513947736373</v>
       </c>
       <c r="E22">
@@ -1757,15 +3198,15 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B23">
-        <f>B22+1</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.8657648402099227</v>
       </c>
       <c r="E23">
@@ -1774,15 +3215,15 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B24">
-        <f>B23+1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.7111021101884196</v>
       </c>
       <c r="E24">
@@ -1791,15 +3232,15 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B25">
-        <f>B24+1</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.5886662689871429</v>
       </c>
       <c r="E25">
@@ -1808,15 +3249,15 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26">
-        <f>B25+1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.8750000000000006E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.486080291836344</v>
       </c>
       <c r="E26">
@@ -1825,15 +3266,15 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27">
-        <f>B26+1</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.3970237464251414</v>
       </c>
       <c r="E27">
@@ -1842,15 +3283,15 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28">
-        <f>B27+1</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.375E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.3178098407415364</v>
       </c>
       <c r="E28">
@@ -1859,15 +3300,15 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B29">
-        <f>B28+1</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10625</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.2460901654695893</v>
       </c>
       <c r="E29">
@@ -1876,15 +3317,15 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B30">
-        <f>B29+1</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11874999999999999</v>
       </c>
       <c r="D30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.1802716510750031</v>
       </c>
       <c r="E30">
@@ -1893,15 +3334,15 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f>B30+1</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13125000000000001</v>
       </c>
       <c r="D31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.119221134199847</v>
       </c>
       <c r="E31">
@@ -1910,15 +3351,15 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B32">
-        <f>B31+1</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14374999999999999</v>
       </c>
       <c r="D32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.0621021066490544</v>
       </c>
       <c r="E32">
@@ -1927,15 +3368,15 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
-        <f>B32+1</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
       <c r="D33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.0082783038771823</v>
       </c>
       <c r="E33">
@@ -1944,15 +3385,15 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
-        <f>B33+1</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="C34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16875000000000001</v>
       </c>
       <c r="D34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.95725368129332633</v>
       </c>
       <c r="E34">
@@ -1961,15 +3402,15 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
-        <f>B34+1</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="C35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.18124999999999999</v>
       </c>
       <c r="D35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.90863340333185738</v>
       </c>
       <c r="E35">
@@ -1978,15 +3419,15 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
-        <f>B35+1</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="C36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19375000000000001</v>
       </c>
       <c r="D36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.86209756667827031</v>
       </c>
       <c r="E36">
@@ -1995,15 +3436,15 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37">
-        <f>B36+1</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="C37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.20624999999999999</v>
       </c>
       <c r="D37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.81738295788941406</v>
       </c>
       <c r="E37">
@@ -2012,15 +3453,15 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38">
-        <f>B37+1</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="C38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21875</v>
       </c>
       <c r="D38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.77427005635431245</v>
       </c>
       <c r="E38">
@@ -2029,15 +3470,15 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39">
-        <f>B38+1</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="C39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23125000000000001</v>
       </c>
       <c r="D39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.7325735637421168</v>
       </c>
       <c r="E39">
@@ -2046,15 +3487,15 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40">
-        <f>B39+1</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24374999999999999</v>
       </c>
       <c r="D40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.69213536556228017</v>
       </c>
       <c r="E40">
@@ -2063,15 +3504,15 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41">
-        <f>B40+1</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="C41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25624999999999998</v>
       </c>
       <c r="D41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.6528192079877555</v>
       </c>
       <c r="E41">
@@ -2080,15 +3521,15 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42">
-        <f>B41+1</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="C42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26874999999999999</v>
       </c>
       <c r="D42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.61450660849518524</v>
       </c>
       <c r="E42">
@@ -2097,15 +3538,15 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43">
-        <f>B42+1</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28125</v>
       </c>
       <c r="D43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.57709366971925891</v>
       </c>
       <c r="E43">
@@ -2114,15 +3555,15 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44">
-        <f>B43+1</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29375000000000001</v>
       </c>
       <c r="D44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.54048856494806119</v>
       </c>
       <c r="E44">
@@ -2131,15 +3572,15 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45">
-        <f>B44+1</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30625000000000002</v>
       </c>
       <c r="D45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.50460953012473142</v>
       </c>
       <c r="E45">
@@ -2148,15 +3589,15 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46">
-        <f>B45+1</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="C46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31874999999999998</v>
       </c>
       <c r="D46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.4693832426714365</v>
       </c>
       <c r="E46">
@@ -2165,15 +3606,15 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
-        <f>B46+1</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="C47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33124999999999999</v>
       </c>
       <c r="D47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.43474349909707011</v>
       </c>
       <c r="E47">
@@ -2182,15 +3623,15 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48">
-        <f>B47+1</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="C48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34375</v>
       </c>
       <c r="D48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.4006301257381869</v>
       </c>
       <c r="E48">
@@ -2199,15 +3640,15 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
-        <f>B48+1</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="C49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35625000000000001</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.36698807305277065</v>
       </c>
       <c r="E49">
@@ -2216,15 +3657,15 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50">
-        <f>B49+1</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="C50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36875000000000002</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.33376665557466606</v>
       </c>
       <c r="E50">
@@ -2233,15 +3674,15 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51">
-        <f>B50+1</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="C51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38124999999999998</v>
       </c>
       <c r="D51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.30091890823963879</v>
       </c>
       <c r="E51">
@@ -2250,15 +3691,15 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52">
-        <f>B51+1</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="C52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.39374999999999999</v>
       </c>
       <c r="D52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.26840103619470485</v>
       </c>
       <c r="E52">
@@ -2267,15 +3708,15 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53">
-        <f>B52+1</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="C53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40625</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.23617194000999964</v>
       </c>
       <c r="E53">
@@ -2284,15 +3725,15 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54">
-        <f>B53+1</f>
+        <f t="shared" ref="B54:B85" si="10">B53+1</f>
         <v>34</v>
       </c>
       <c r="C54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41875000000000001</v>
       </c>
       <c r="D54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.20419280185299005</v>
       </c>
       <c r="E54">
@@ -2301,15 +3742,15 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55">
-        <f>B54+1</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.43125000000000002</v>
       </c>
       <c r="D55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.17242672096007022</v>
       </c>
       <c r="E55">
@@ -2318,15 +3759,15 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56">
-        <f>B55+1</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.44374999999999998</v>
       </c>
       <c r="D56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.1408383888659345</v>
       </c>
       <c r="E56">
@@ -2335,15 +3776,15 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57">
-        <f>B56+1</f>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45624999999999999</v>
       </c>
       <c r="D57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.10939379648226645</v>
       </c>
       <c r="E57">
@@ -2352,15 +3793,15 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58">
-        <f>B57+1</f>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="C58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.46875</v>
       </c>
       <c r="D58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7.8059966366998385E-2</v>
       </c>
       <c r="E58">
@@ -2369,15 +3810,15 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59">
-        <f>B58+1</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="C59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.48125000000000001</v>
       </c>
       <c r="D59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.6804704475896027E-2</v>
       </c>
       <c r="E59">
@@ -2386,15 +3827,15 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60">
-        <f>B59+1</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.49375000000000002</v>
       </c>
       <c r="D60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.5596366399235411E-2</v>
       </c>
       <c r="E60">
@@ -2403,15 +3844,15 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61">
-        <f>B60+1</f>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="C61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50624999999999998</v>
       </c>
       <c r="D61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5596366399235411E-2</v>
       </c>
       <c r="E61">
@@ -2420,15 +3861,15 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62">
-        <f>B61+1</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="C62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.51875000000000004</v>
       </c>
       <c r="D62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6804704475896027E-2</v>
       </c>
       <c r="E62">
@@ -2437,15 +3878,15 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63">
-        <f>B62+1</f>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="C63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.53125</v>
       </c>
       <c r="D63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8059966366998385E-2</v>
       </c>
       <c r="E63">
@@ -2454,15 +3895,15 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64">
-        <f>B63+1</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="C64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.54374999999999996</v>
       </c>
       <c r="D64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10939379648226645</v>
       </c>
       <c r="E64">
@@ -2471,15 +3912,15 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65">
-        <f>B64+1</f>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="C65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.55625000000000002</v>
       </c>
       <c r="D65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1408383888659345</v>
       </c>
       <c r="E65">
@@ -2488,15 +3929,15 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66">
-        <f>B65+1</f>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="C66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.56874999999999998</v>
       </c>
       <c r="D66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17242672096007022</v>
       </c>
       <c r="E66">
@@ -2505,15 +3946,15 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67">
-        <f>B66+1</f>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="C67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58125000000000004</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.20419280185299005</v>
       </c>
       <c r="E67">
@@ -2522,15 +3963,15 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68">
-        <f>B67+1</f>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23617194000999964</v>
       </c>
       <c r="E68">
@@ -2539,15 +3980,15 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69">
-        <f>B68+1</f>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.60624999999999996</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26840103619470485</v>
       </c>
       <c r="E69">
@@ -2556,15 +3997,15 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70">
-        <f>B69+1</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="C70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.61875000000000002</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30091890823963879</v>
       </c>
       <c r="E70">
@@ -2573,15 +4014,15 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71">
-        <f>B70+1</f>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="C71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.63124999999999998</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33376665557466606</v>
       </c>
       <c r="E71">
@@ -2590,15 +4031,15 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72">
-        <f>B71+1</f>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64375000000000004</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.36698807305277065</v>
       </c>
       <c r="E72">
@@ -2607,15 +4048,15 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73">
-        <f>B72+1</f>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="C73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.65625</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4006301257381869</v>
       </c>
       <c r="E73">
@@ -2624,15 +4065,15 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74">
-        <f>B73+1</f>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66874999999999996</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.43474349909706955</v>
       </c>
       <c r="E74">
@@ -2641,15 +4082,15 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75">
-        <f>B74+1</f>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="C75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.68125000000000002</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4693832426714365</v>
       </c>
       <c r="E75">
@@ -2658,15 +4099,15 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76">
-        <f>B75+1</f>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.69374999999999998</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50460953012473142</v>
       </c>
       <c r="E76">
@@ -2675,15 +4116,15 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77">
-        <f>B76+1</f>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="C77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.70625000000000004</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54048856494806119</v>
       </c>
       <c r="E77">
@@ -2692,15 +4133,15 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78">
-        <f>B77+1</f>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71875</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57709366971925891</v>
       </c>
       <c r="E78">
@@ -2709,15 +4150,15 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79">
-        <f>B78+1</f>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.73124999999999996</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.61450660849518524</v>
       </c>
       <c r="E79">
@@ -2726,15 +4167,15 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80">
-        <f>B79+1</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="C80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74375000000000002</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6528192079877555</v>
       </c>
       <c r="E80">
@@ -2743,15 +4184,15 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81">
-        <f>B80+1</f>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="C81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.75624999999999998</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.69213536556227961</v>
       </c>
       <c r="E81">
@@ -2760,15 +4201,15 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82">
-        <f>B81+1</f>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="C82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.76875000000000004</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7325735637421168</v>
       </c>
       <c r="E82">
@@ -2777,15 +4218,15 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83">
-        <f>B82+1</f>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="C83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.78125</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.77427005635431245</v>
       </c>
       <c r="E83">
@@ -2794,15 +4235,15 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84">
-        <f>B83+1</f>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="C84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.79374999999999996</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.81738295788941406</v>
       </c>
       <c r="E84">
@@ -2811,15 +4252,15 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85">
-        <f>B84+1</f>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="C85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.80625000000000002</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.86209756667827087</v>
       </c>
       <c r="E85">
@@ -2828,15 +4269,15 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86">
-        <f>B85+1</f>
+        <f t="shared" ref="B86:B100" si="11">B85+1</f>
         <v>66</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:C100" si="9">(B86-0.5)/80</f>
+        <f t="shared" ref="C86:C100" si="12">(B86-0.5)/80</f>
         <v>0.81874999999999998</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86:D100" si="10">4.91*(C86^0.14-(1-C86)^0.14)</f>
+        <f t="shared" ref="D86:D100" si="13">4.91*(C86^0.14-(1-C86)^0.14)</f>
         <v>0.90863340333185738</v>
       </c>
       <c r="E86">
@@ -2845,15 +4286,15 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87">
-        <f>B86+1</f>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="C87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.83125000000000004</v>
       </c>
       <c r="D87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.95725368129332689</v>
       </c>
       <c r="E87">
@@ -2862,15 +4303,15 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88">
-        <f>B87+1</f>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="C88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.84375</v>
       </c>
       <c r="D88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0082783038771823</v>
       </c>
       <c r="E88">
@@ -2879,15 +4320,15 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89">
-        <f>B88+1</f>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="C89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.85624999999999996</v>
       </c>
       <c r="D89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0621021066490544</v>
       </c>
       <c r="E89">
@@ -2896,15 +4337,15 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90">
-        <f>B89+1</f>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="C90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.86875000000000002</v>
       </c>
       <c r="D90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.119221134199847</v>
       </c>
       <c r="E90">
@@ -2913,15 +4354,15 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91">
-        <f>B90+1</f>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="C91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.88124999999999998</v>
       </c>
       <c r="D91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1802716510750031</v>
       </c>
       <c r="E91">
@@ -2930,15 +4371,15 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92">
-        <f>B91+1</f>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="C92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89375000000000004</v>
       </c>
       <c r="D92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2460901654695893</v>
       </c>
       <c r="E92">
@@ -2947,15 +4388,15 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93">
-        <f>B92+1</f>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="C93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.90625</v>
       </c>
       <c r="D93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3178098407415364</v>
       </c>
       <c r="E93">
@@ -2964,15 +4405,15 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94">
-        <f>B93+1</f>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="C94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.91874999999999996</v>
       </c>
       <c r="D94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3970237464251407</v>
       </c>
       <c r="E94">
@@ -2981,15 +4422,15 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95">
-        <f>B94+1</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="C95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.93125000000000002</v>
       </c>
       <c r="D95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4860802918363445</v>
       </c>
       <c r="E95">
@@ -2998,15 +4439,15 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96">
-        <f>B95+1</f>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="C96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94374999999999998</v>
       </c>
       <c r="D96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5886662689871429</v>
       </c>
       <c r="E96">
@@ -3015,15 +4456,15 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97">
-        <f>B96+1</f>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="C97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95625000000000004</v>
       </c>
       <c r="D97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7111021101884201</v>
       </c>
       <c r="E97">
@@ -3032,15 +4473,15 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98">
-        <f>B97+1</f>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="C98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.96875</v>
       </c>
       <c r="D98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.8657648402099227</v>
       </c>
       <c r="E98">
@@ -3049,15 +4490,15 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99">
-        <f>B98+1</f>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="C99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.98124999999999996</v>
       </c>
       <c r="D99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.0831513947736369</v>
       </c>
       <c r="E99">
@@ -3066,15 +4507,15 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100">
-        <f>B99+1</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.99375000000000002</v>
       </c>
       <c r="D100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.4929845460225413</v>
       </c>
       <c r="E100">
@@ -3086,5 +4527,6 @@
     <sortCondition ref="E21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2Kr analysis compression.xlsx
+++ b/2Kr analysis compression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo\Desktop\Performance\Progetto\cran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5A0FB-9DC5-4CD1-B30D-77340ABBCAB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6859870C-BFE3-419C-BFCE-B4A662AFAF54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{BFB84A66-AB89-4725-93DE-5EFB5F8CCA41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>2^Kr Analysis</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>(10;50)</t>
+  </si>
+  <si>
+    <t>(50;6)</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F5A1FF-97F8-4083-B44C-5A07F5858ACE}">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,11 +562,9 @@
     <col min="7" max="7" width="16.21875" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.88671875" customWidth="1"/>
     <col min="29" max="29" width="9.33203125" customWidth="1"/>
     <col min="30" max="30" width="10.109375" bestFit="1" customWidth="1"/>
@@ -1789,7 +1790,1221 @@
       <c r="E19" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
       <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" t="s">
+        <v>23</v>
+      </c>
+      <c r="W25" t="s">
+        <v>24</v>
+      </c>
+      <c r="X25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.64993916414767405</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.64976539915467002</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.64994169315987804</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.65045772992302198</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.64994704728459396</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.65016848061167598</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.65015571679871598</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.65000519969966197</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.64983551344115997</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.64984286728978402</v>
+      </c>
+      <c r="T26" s="2">
+        <f>AVERAGE(J26:S26)</f>
+        <v>0.6500058811510836</v>
+      </c>
+      <c r="U26" s="2">
+        <f>J26-$T26</f>
+        <v>-6.671700340954434E-5</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" ref="V26:AD33" si="10">K26-$T26</f>
+        <v>-2.4048199641357737E-4</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.4187991205555406E-5</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="10"/>
+        <v>4.5184877193837902E-4</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.8833866489638176E-5</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6259946059238306E-4</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4983564763237922E-4</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.814514216246792E-7</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.7036770992362449E-4</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.6301386129957685E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6.8393507690487096</v>
+      </c>
+      <c r="K27" s="2">
+        <v>7.0957460654975399</v>
+      </c>
+      <c r="L27" s="2">
+        <v>6.79290366362744</v>
+      </c>
+      <c r="M27" s="2">
+        <v>6.7946617233833697</v>
+      </c>
+      <c r="N27" s="2">
+        <v>7.3037421468677</v>
+      </c>
+      <c r="O27" s="2">
+        <v>6.7420525102776603</v>
+      </c>
+      <c r="P27" s="2">
+        <v>6.8740185946589296</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>6.9517444805735202</v>
+      </c>
+      <c r="R27" s="2">
+        <v>7.0247955014672403</v>
+      </c>
+      <c r="S27" s="2">
+        <v>6.8555473779103204</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" ref="T27:T33" si="11">AVERAGE(J27:S27)</f>
+        <v>6.9274562833312432</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" ref="U27:U33" si="12">J27-$T27</f>
+        <v>-8.8105514282533548E-2</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="10"/>
+        <v>0.16828978216629675</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.13455261970380317</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.13279455994787348</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="10"/>
+        <v>0.37628586353645677</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.18540377305358291</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.3437688672313577E-2</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="10"/>
+        <v>2.4288197242277043E-2</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="10"/>
+        <v>9.7339218135997108E-2</v>
+      </c>
+      <c r="AD27" s="2">
+        <f t="shared" si="10"/>
+        <v>-7.1908905420922764E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.66311010411857196</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.66315005306852903</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.66301343257492096</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.66313024409870203</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.66281611322889</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.66329908093543499</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.66313680668402697</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.66342259015285798</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.662980663736501</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0.66337207248034402</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="11"/>
+        <v>0.66314311610787802</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="12"/>
+        <v>-3.3011989306053202E-5</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="10"/>
+        <v>6.9369606510161219E-6</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.2968353295705892E-4</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.2872009175990407E-5</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="10"/>
+        <v>-3.2700287898801417E-4</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5596482755697583E-4</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.3094238510474909E-6</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="10"/>
+        <v>2.7947404497996597E-4</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.6245237137701984E-4</v>
+      </c>
+      <c r="AD28" s="2">
+        <f t="shared" si="10"/>
+        <v>2.2895637246600486E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6.8682707477387703</v>
+      </c>
+      <c r="K29" s="2">
+        <v>6.8077045914937804</v>
+      </c>
+      <c r="L29" s="2">
+        <v>6.7546906172330301</v>
+      </c>
+      <c r="M29" s="2">
+        <v>6.8060072162494398</v>
+      </c>
+      <c r="N29" s="2">
+        <v>6.96468860021597</v>
+      </c>
+      <c r="O29" s="2">
+        <v>7.31700605584727</v>
+      </c>
+      <c r="P29" s="2">
+        <v>6.8871227468399301</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>7.1087335244031804</v>
+      </c>
+      <c r="R29" s="2">
+        <v>6.8523856531744904</v>
+      </c>
+      <c r="S29" s="2">
+        <v>7.0377158081979996</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="11"/>
+        <v>6.9404325561393865</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="12"/>
+        <v>-7.2161808400616145E-2</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.1327279646456061</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.18574193890635637</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.13442533988994665</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="10"/>
+        <v>2.4256044076583549E-2</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="10"/>
+        <v>0.37657349970788356</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="10"/>
+        <v>-5.330980929945639E-2</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="10"/>
+        <v>0.16830096826379393</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="10"/>
+        <v>-8.8046902964896034E-2</v>
+      </c>
+      <c r="AD29" s="2">
+        <f t="shared" si="10"/>
+        <v>9.7283252058613101E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2.62237720703751</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2.6206660162506101</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2.6211622138874402</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2.6225475638262101</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2.62133326874716</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2.6227142429005799</v>
+      </c>
+      <c r="P30" s="2">
+        <v>2.6243016919244702</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2.6226118275354899</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2.6228828667934301</v>
+      </c>
+      <c r="S30" s="2">
+        <v>2.6230366343644902</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="11"/>
+        <v>2.622363353326739</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3853710771005723E-5</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.6973370761288464E-3</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.2011394392987818E-3</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8421049947114909E-4</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.0300845795789826E-3</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="10"/>
+        <v>3.5088957384088459E-4</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9383385977311818E-3</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="10"/>
+        <v>2.4847420875095949E-4</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="10"/>
+        <v>5.1951346669110166E-4</v>
+      </c>
+      <c r="AD30" s="2">
+        <f t="shared" si="10"/>
+        <v>6.7328103775121662E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3.77894604291187</v>
+      </c>
+      <c r="K31" s="2">
+        <v>3.7753202808042099</v>
+      </c>
+      <c r="L31" s="2">
+        <v>3.7825509186027801</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3.775205624507</v>
+      </c>
+      <c r="N31" s="2">
+        <v>3.7718289612443501</v>
+      </c>
+      <c r="O31" s="2">
+        <v>3.7732820306380099</v>
+      </c>
+      <c r="P31" s="2">
+        <v>3.7693081617891302</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>3.77713010137085</v>
+      </c>
+      <c r="R31" s="2">
+        <v>3.76156778490243</v>
+      </c>
+      <c r="S31" s="2">
+        <v>3.7689087731230599</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="11"/>
+        <v>3.773404867989369</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="12"/>
+        <v>5.5411749225009466E-3</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9154128148408667E-3</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="10"/>
+        <v>9.1460506134111164E-3</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8007565176310081E-3</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.5759067450189512E-3</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.2283735135909524E-4</v>
+      </c>
+      <c r="AA31" s="2">
+        <f t="shared" si="10"/>
+        <v>-4.096706200238831E-3</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="10"/>
+        <v>3.7252333814810079E-3</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.1837083086938982E-2</v>
+      </c>
+      <c r="AD31" s="2">
+        <f t="shared" si="10"/>
+        <v>-4.4960948663090861E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3.0541384234385101</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3.06637942368934</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3.0577749778822998</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3.05458781528093</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3.05854897489403</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3.0523483378634699</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3.0656058136299298</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>3.0622926703703</v>
+      </c>
+      <c r="R32" s="2">
+        <v>3.0619125049161799</v>
+      </c>
+      <c r="S32" s="2">
+        <v>3.0567328411911001</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="11"/>
+        <v>3.0590321783156087</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="12"/>
+        <v>-4.8937548770986439E-3</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="10"/>
+        <v>7.3472453737313259E-3</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.2572004333089026E-3</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="10"/>
+        <v>-4.4443630346786556E-3</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="10"/>
+        <v>-4.83203421578704E-4</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="10"/>
+        <v>-6.6838404521387673E-3</v>
+      </c>
+      <c r="AA32" s="2">
+        <f t="shared" si="10"/>
+        <v>6.5736353143210913E-3</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" si="10"/>
+        <v>3.2604920546912552E-3</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="10"/>
+        <v>2.880326600571248E-3</v>
+      </c>
+      <c r="AD32" s="2">
+        <f t="shared" si="10"/>
+        <v>-2.2993371245085825E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4.2129730133702203</v>
+      </c>
+      <c r="K33" s="2">
+        <v>4.2113767019230899</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4.2139420182940999</v>
+      </c>
+      <c r="M33" s="2">
+        <v>4.2094372057524803</v>
+      </c>
+      <c r="N33" s="2">
+        <v>4.2020500688214204</v>
+      </c>
+      <c r="O33" s="2">
+        <v>4.2185014279514599</v>
+      </c>
+      <c r="P33" s="2">
+        <v>4.2101068507376</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>4.19508298378351</v>
+      </c>
+      <c r="R33" s="2">
+        <v>4.2260066743361202</v>
+      </c>
+      <c r="S33" s="2">
+        <v>4.1967040221852701</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="11"/>
+        <v>4.209618096715527</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="12"/>
+        <v>3.3549166546933407E-3</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="10"/>
+        <v>1.75860520756288E-3</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="10"/>
+        <v>4.3239215785728646E-3</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.8089096304674257E-4</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="10"/>
+        <v>-7.5680278941065993E-3</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="10"/>
+        <v>8.8833312359328787E-3</v>
+      </c>
+      <c r="AA33" s="2">
+        <f t="shared" si="10"/>
+        <v>4.8875402207304575E-4</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.4535112932017036E-2</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="10"/>
+        <v>1.6388577620593203E-2</v>
+      </c>
+      <c r="AD33" s="2">
+        <f t="shared" si="10"/>
+        <v>-1.2914074530256947E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B26*$T26+B27*$T27+B28*$T28+B29*$T29+B30*$T30+B31*$T31+B32*$T32+B33*$T33</f>
+        <v>28.845456333076836</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:I34" si="13">C26*$T26+C27*$T27+C28*$T28+C29*$T29+C30*$T30+C31*$T31+C32*$T32+C33*$T33</f>
+        <v>14.856367275274216</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="13"/>
+        <v>0.89899556147996496</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="13"/>
+        <v>-1.5166193403823494</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="13"/>
+        <v>-6.1655841136243339E-4</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="13"/>
+        <v>-10.253112409149118</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="13"/>
+        <v>0.84676854595009043</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="13"/>
+        <v>-2.9463411406105422E-4</v>
+      </c>
+      <c r="U34" s="2">
+        <f>SUM(U26:U33)</f>
+        <v>-0.15635086126499864</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" ref="V34:AD34" si="14">SUM(V26:V33)</f>
+        <v>4.4652198804934318E-2</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.30947679781494586</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.26942121005568098</v>
+      </c>
+      <c r="Y34" s="2">
+        <f t="shared" si="14"/>
+        <v>0.38949884822727943</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="14"/>
+        <v>0.19391583394872591</v>
+      </c>
+      <c r="AA34" s="2">
+        <f t="shared" si="14"/>
+        <v>-0.10169995001410215</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="14"/>
+        <v>0.1855670448125355</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6910829690717E-2</v>
+      </c>
+      <c r="AD34" s="2">
+        <f t="shared" si="14"/>
+        <v>6.404063665533366E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B34/8</f>
+        <v>3.6056820416346045</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:I35" si="15">C34/8</f>
+        <v>1.8570459094092771</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="15"/>
+        <v>0.11237444518499562</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.18957741754779367</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.7069801420304174E-5</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="15"/>
+        <v>-1.2816390511436397</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1058460682437613</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="15"/>
+        <v>-3.6829264257631777E-5</v>
+      </c>
+      <c r="U35" s="2">
+        <f>U34/8</f>
+        <v>-1.954385765812483E-2</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" ref="V35:AD35" si="16">V34/8</f>
+        <v>5.5815248506167897E-3</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.8684599726868232E-2</v>
+      </c>
+      <c r="X35" s="2">
+        <f t="shared" si="16"/>
+        <v>-3.3677651256960123E-2</v>
+      </c>
+      <c r="Y35" s="2">
+        <f t="shared" si="16"/>
+        <v>4.8687356028409928E-2</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="16"/>
+        <v>2.4239479243590739E-2</v>
+      </c>
+      <c r="AA35" s="2">
+        <f t="shared" si="16"/>
+        <v>-1.2712493751762768E-2</v>
+      </c>
+      <c r="AB35" s="2">
+        <f t="shared" si="16"/>
+        <v>2.3195880601566937E-2</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="16"/>
+        <v>2.113853711339625E-3</v>
+      </c>
+      <c r="AD35" s="2">
+        <f t="shared" si="16"/>
+        <v>8.0050795819167075E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <f>80*(C35^2)</f>
+        <v>275.8895607722983</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:I36" si="17">80*(D35^2)</f>
+        <v>1.0102412744508469</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8751677795272408</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="17"/>
+        <v>4.751803432772095E-7</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="17"/>
+        <v>131.40789259330953</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="17"/>
+        <v>0.89627121301303803</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="17"/>
+        <v>1.0851157646067788E-7</v>
+      </c>
+      <c r="U36" s="2">
+        <f>U26^2+U27^2+U28^2+U29^2+U30^2+U31^2+U32^2+U33^2</f>
+        <v>1.3035822893591061E-2</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" ref="V36:AD36" si="18">V26^2+V27^2+V28^2+V29^2+V30^2+V31^2+V32^2+V33^2</f>
+        <v>4.6001845726516041E-2</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="18"/>
+        <v>5.2709866104288718E-2</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="18"/>
+        <v>3.5727833231146797E-2</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="18"/>
+        <v>0.14224057025199152</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="18"/>
+        <v>0.17630593601790476</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="18"/>
+        <v>5.76153654866396E-3</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" si="18"/>
+        <v>2.9151049969580629E-2</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="18"/>
+        <v>1.7644504112967932E-2</v>
+      </c>
+      <c r="AD36" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4827729253062154E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4">
+        <f>C36/$B39</f>
+        <v>0.6686407547467349</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:I37" si="19">D36/$B39</f>
+        <v>2.448401767483413E-3</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="19"/>
+        <v>6.968202597970932E-3</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="19"/>
+        <v>1.1516381499911696E-9</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="19"/>
+        <v>0.31847769896515321</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="19"/>
+        <v>2.1721860684008262E-3</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="19"/>
+        <v>2.6298661747230151E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD38" s="2">
+        <f>SUM(U36:AD36)</f>
+        <v>0.53340669410971364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2">
+        <f>SUM(C36:I36)+AD38</f>
+        <v>412.61254091040058</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD39" s="4">
+        <f>AD38/B39</f>
+        <v>1.2927544396318861E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
